--- a/biology/Médecine/Ambroise-Philibert-Léon_Auvity/Ambroise-Philibert-Léon_Auvity.xlsx
+++ b/biology/Médecine/Ambroise-Philibert-Léon_Auvity/Ambroise-Philibert-Léon_Auvity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ambroise-Philibert-L%C3%A9on_Auvity</t>
+          <t>Ambroise-Philibert-Léon_Auvity</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambroise-Philibert-Léon Auvity, né à Paris le 17 avril 1788 et mort le 24 mars 1847 (à 58 ans) dans le 10e arrondissement de Paris[1], est un chirurgien français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambroise-Philibert-Léon Auvity, né à Paris le 17 avril 1788 et mort le 24 mars 1847 (à 58 ans) dans le 10e arrondissement de Paris, est un chirurgien français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ambroise-Philibert-L%C3%A9on_Auvity</t>
+          <t>Ambroise-Philibert-Léon_Auvity</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambroise-Philibert-Léon est le fils de Jean-Abraham, chirurgien[2]. C'est le frère du chirurgien Pierre-Jean Auvity.
-Il succède à son père comme chirurgien-chef de l'hôpital des Enfants-Trouvés[2]. Il est aussi chirurgien major de la garde municipale de Paris[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambroise-Philibert-Léon est le fils de Jean-Abraham, chirurgien. C'est le frère du chirurgien Pierre-Jean Auvity.
+Il succède à son père comme chirurgien-chef de l'hôpital des Enfants-Trouvés. Il est aussi chirurgien major de la garde municipale de Paris.
 Il épouse Catherine Aimée Jeanne Sirey, la fille de Jean-Baptiste Sirey. Veuf en 1829, il épouse en secondes noces Catherine Mills en 1831.
-Il meurt d'angine de poitrine en 1847[2].
+Il meurt d'angine de poitrine en 1847.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ambroise-Philibert-L%C3%A9on_Auvity</t>
+          <t>Ambroise-Philibert-Léon_Auvity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chevalier de la Légion d'honneur (1813).
 Officier de la Légion d'honneur (1843).</t>
